--- a/SchedulingData/static4/pso/scheduling1_13.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_13.xlsx
@@ -462,45 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>67.7</v>
+        <v>48.1</v>
       </c>
       <c r="E2" t="n">
-        <v>27.36</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>81.5</v>
+        <v>72.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26.48</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -519,45 +519,45 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>55.46</v>
       </c>
       <c r="D5" t="n">
-        <v>84.7</v>
+        <v>116.4</v>
       </c>
       <c r="E5" t="n">
-        <v>24.68</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67.7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>155.76</v>
+        <v>59.42</v>
       </c>
       <c r="E6" t="n">
-        <v>23.664</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>155.76</v>
+        <v>48.1</v>
       </c>
       <c r="D7" t="n">
-        <v>208.36</v>
+        <v>110.8</v>
       </c>
       <c r="E7" t="n">
-        <v>20.024</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="8">
@@ -580,188 +580,188 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55.46</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>136.5</v>
+        <v>73.62</v>
       </c>
       <c r="E8" t="n">
-        <v>21.64</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84.7</v>
+        <v>59.42</v>
       </c>
       <c r="D9" t="n">
-        <v>155.7</v>
+        <v>104.02</v>
       </c>
       <c r="E9" t="n">
-        <v>21.2</v>
+        <v>24.388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>85.26000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>24.624</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>136.5</v>
+        <v>72.3</v>
       </c>
       <c r="D11" t="n">
-        <v>186.12</v>
+        <v>141.9</v>
       </c>
       <c r="E11" t="n">
-        <v>19.308</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>141.9</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6</v>
+        <v>202.06</v>
       </c>
       <c r="E12" t="n">
-        <v>26.04</v>
+        <v>15.224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>155.7</v>
+        <v>73.62</v>
       </c>
       <c r="D13" t="n">
-        <v>198.62</v>
+        <v>128.24</v>
       </c>
       <c r="E13" t="n">
-        <v>17.548</v>
+        <v>22.956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>85.26000000000001</v>
+        <v>104.02</v>
       </c>
       <c r="D14" t="n">
-        <v>168.26</v>
+        <v>165.42</v>
       </c>
       <c r="E14" t="n">
-        <v>18.924</v>
+        <v>20.868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>186.12</v>
+        <v>110.8</v>
       </c>
       <c r="D15" t="n">
-        <v>248.22</v>
+        <v>147.9</v>
       </c>
       <c r="E15" t="n">
-        <v>15.228</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>81.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>172.9</v>
+        <v>112.5</v>
       </c>
       <c r="E16" t="n">
-        <v>21.44</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>208.36</v>
+        <v>128.24</v>
       </c>
       <c r="D17" t="n">
-        <v>275.86</v>
+        <v>175.24</v>
       </c>
       <c r="E17" t="n">
-        <v>16.904</v>
+        <v>19.876</v>
       </c>
     </row>
     <row r="18">
@@ -770,112 +770,112 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>56.6</v>
+        <v>165.42</v>
       </c>
       <c r="D18" t="n">
-        <v>142.34</v>
+        <v>223.48</v>
       </c>
       <c r="E18" t="n">
-        <v>22.536</v>
+        <v>17.172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>142.34</v>
+        <v>147.9</v>
       </c>
       <c r="D19" t="n">
-        <v>209.34</v>
+        <v>228.74</v>
       </c>
       <c r="E19" t="n">
-        <v>19.416</v>
+        <v>17.656</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>172.9</v>
+        <v>202.06</v>
       </c>
       <c r="D20" t="n">
-        <v>214.16</v>
+        <v>277.48</v>
       </c>
       <c r="E20" t="n">
-        <v>18.944</v>
+        <v>9.792</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>168.26</v>
+        <v>112.5</v>
       </c>
       <c r="D21" t="n">
-        <v>233.88</v>
+        <v>179.1</v>
       </c>
       <c r="E21" t="n">
-        <v>13.492</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>248.22</v>
+        <v>179.1</v>
       </c>
       <c r="D22" t="n">
-        <v>283.02</v>
+        <v>246.4</v>
       </c>
       <c r="E22" t="n">
-        <v>12.388</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>214.16</v>
+        <v>228.74</v>
       </c>
       <c r="D23" t="n">
-        <v>270.96</v>
+        <v>284.6</v>
       </c>
       <c r="E23" t="n">
-        <v>15.864</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="24">
@@ -884,74 +884,74 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>283.02</v>
+        <v>175.24</v>
       </c>
       <c r="D24" t="n">
-        <v>343.76</v>
+        <v>231.58</v>
       </c>
       <c r="E24" t="n">
-        <v>9.423999999999999</v>
+        <v>15.872</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>198.62</v>
+        <v>231.58</v>
       </c>
       <c r="D25" t="n">
-        <v>252.34</v>
+        <v>289.3</v>
       </c>
       <c r="E25" t="n">
-        <v>14.776</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>252.34</v>
+        <v>289.3</v>
       </c>
       <c r="D26" t="n">
-        <v>303.48</v>
+        <v>328.92</v>
       </c>
       <c r="E26" t="n">
-        <v>10.792</v>
+        <v>9.888</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>270.96</v>
+        <v>284.6</v>
       </c>
       <c r="D27" t="n">
-        <v>315.48</v>
+        <v>327.1</v>
       </c>
       <c r="E27" t="n">
-        <v>13.032</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="28">
@@ -960,74 +960,74 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>315.48</v>
+        <v>116.4</v>
       </c>
       <c r="D28" t="n">
-        <v>385.9</v>
+        <v>164.64</v>
       </c>
       <c r="E28" t="n">
-        <v>9.6</v>
+        <v>18.956</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>209.34</v>
+        <v>246.4</v>
       </c>
       <c r="D29" t="n">
-        <v>287.46</v>
+        <v>326.9</v>
       </c>
       <c r="E29" t="n">
-        <v>15.204</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>303.48</v>
+        <v>223.48</v>
       </c>
       <c r="D30" t="n">
-        <v>356.78</v>
+        <v>269.32</v>
       </c>
       <c r="E30" t="n">
-        <v>8.071999999999999</v>
+        <v>14.208</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>287.46</v>
+        <v>164.64</v>
       </c>
       <c r="D31" t="n">
-        <v>340.6</v>
+        <v>220.44</v>
       </c>
       <c r="E31" t="n">
-        <v>12.5</v>
+        <v>14.996</v>
       </c>
     </row>
     <row r="32">
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>233.88</v>
+        <v>277.48</v>
       </c>
       <c r="D32" t="n">
-        <v>311.28</v>
+        <v>334.78</v>
       </c>
       <c r="E32" t="n">
-        <v>10.372</v>
+        <v>7.152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>275.86</v>
+        <v>220.44</v>
       </c>
       <c r="D33" t="n">
-        <v>327.86</v>
+        <v>266.06</v>
       </c>
       <c r="E33" t="n">
-        <v>14.824</v>
+        <v>11.564</v>
       </c>
     </row>
   </sheetData>
